--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_37.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_37.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_37_0</t>
+          <t>model_1_37_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998257662261881</v>
+        <v>0.9368330866688244</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8285630348087236</v>
+        <v>0.7390123949743421</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8208418364457103</v>
+        <v>0.6482050795776249</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9998007773165227</v>
+        <v>0.9456293672769914</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0007252527349819226</v>
+        <v>0.2629339630975369</v>
       </c>
       <c r="G2" t="n">
-        <v>1.146399775628705</v>
+        <v>1.745225316543995</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6408383628465034</v>
+        <v>1.25835003210934</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0005585941766796524</v>
+        <v>0.2955313101786066</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08987938074757607</v>
+        <v>1.304949522792729</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02693051679752772</v>
+        <v>0.5127708680273645</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01115096152396</v>
+        <v>0.9139854797192501</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02735464551644848</v>
+        <v>0.5208464966159811</v>
       </c>
       <c r="N2" t="n">
-        <v>144.4579807277628</v>
+        <v>36.67170473843371</v>
       </c>
       <c r="O2" t="n">
-        <v>285.7931532709792</v>
+        <v>73.63628832665954</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_37_2</t>
+          <t>model_1_37_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998391763532906</v>
+        <v>0.9368839302227303</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8285617083072366</v>
+        <v>0.738851326250222</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8207724678589895</v>
+        <v>0.6477072158401014</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9998241430119641</v>
+        <v>0.9461282036116236</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0006694327229102001</v>
+        <v>0.2627223254470415</v>
       </c>
       <c r="G3" t="n">
-        <v>1.146408645950256</v>
+        <v>1.74630238384384</v>
       </c>
       <c r="H3" t="n">
-        <v>0.641086490258982</v>
+        <v>1.260130861830663</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0004930798427706505</v>
+        <v>0.2928198877037279</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08658084210763635</v>
+        <v>1.299939079509336</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02587339797765651</v>
+        <v>0.5125644597970498</v>
       </c>
       <c r="L3" t="n">
-        <v>1.010292713389404</v>
+        <v>0.9140547134947817</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02628087813189544</v>
+        <v>0.5206368376623715</v>
       </c>
       <c r="N3" t="n">
-        <v>144.6181597728814</v>
+        <v>36.67331520265943</v>
       </c>
       <c r="O3" t="n">
-        <v>285.9533323160978</v>
+        <v>73.63789879088525</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_37_1</t>
+          <t>model_1_37_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998332710804402</v>
+        <v>0.9370041600184317</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8285100766906941</v>
+        <v>0.7383029508828909</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8207715906299948</v>
+        <v>0.6464049006749562</v>
       </c>
       <c r="E4" t="n">
-        <v>0.999818896020591</v>
+        <v>0.9474069633568469</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0006940135788016508</v>
+        <v>0.2622218657126799</v>
       </c>
       <c r="G4" t="n">
-        <v>1.146753906807818</v>
+        <v>1.749969372450219</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6410896280562313</v>
+        <v>1.264789167663816</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0005077917158107816</v>
+        <v>0.2858691953173662</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08811386402922643</v>
+        <v>1.286971349919971</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0263441374655093</v>
+        <v>0.5120760350892042</v>
       </c>
       <c r="L4" t="n">
-        <v>1.010670650851829</v>
+        <v>0.9142184306633964</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02675903129611506</v>
+        <v>0.5201407207536228</v>
       </c>
       <c r="N4" t="n">
-        <v>144.5460380633045</v>
+        <v>36.67712863573983</v>
       </c>
       <c r="O4" t="n">
-        <v>285.8812106065209</v>
+        <v>73.64171222396565</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_37_3</t>
+          <t>model_1_37_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998399794927902</v>
+        <v>0.9370268434401102</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8280855762743352</v>
+        <v>0.7381916249905729</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8204206206867416</v>
+        <v>0.6461340909283073</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9998150914873564</v>
+        <v>0.9476680362043753</v>
       </c>
       <c r="F5" t="n">
-        <v>0.000666089633301435</v>
+        <v>0.2621274453643671</v>
       </c>
       <c r="G5" t="n">
-        <v>1.149592543046654</v>
+        <v>1.750713809204758</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6423450271928415</v>
+        <v>1.265757838425128</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0005184591261316562</v>
+        <v>0.28445013512222</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08444766900529009</v>
+        <v>1.284301320277315</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02580871235264237</v>
+        <v>0.5119838331083971</v>
       </c>
       <c r="L5" t="n">
-        <v>1.010241312461424</v>
+        <v>0.9142493187269586</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02621517377294923</v>
+        <v>0.5200470666837863</v>
       </c>
       <c r="N5" t="n">
-        <v>144.6281726238858</v>
+        <v>36.67784892160529</v>
       </c>
       <c r="O5" t="n">
-        <v>285.9633451671021</v>
+        <v>73.64243250983111</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_37_4</t>
+          <t>model_1_37_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998437663346877</v>
+        <v>0.9370918776173534</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8280490610922958</v>
+        <v>0.7378645234542904</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8205695204840823</v>
+        <v>0.6453006788273061</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9998272606708486</v>
+        <v>0.9484621559712023</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0006503268028063335</v>
+        <v>0.2618567388653859</v>
       </c>
       <c r="G6" t="n">
-        <v>1.149836720237089</v>
+        <v>1.752901138684043</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6418124212514603</v>
+        <v>1.268738905186399</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0004843383377002803</v>
+        <v>0.2801337009853446</v>
       </c>
       <c r="J6" t="n">
-        <v>0.08263485526140849</v>
+        <v>1.276129073547008</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02550150589291412</v>
+        <v>0.5117193946543221</v>
       </c>
       <c r="L6" t="n">
-        <v>1.009998954579984</v>
+        <v>0.9143378759044811</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02590312911857405</v>
+        <v>0.5197784635884011</v>
       </c>
       <c r="N6" t="n">
-        <v>144.6760710957493</v>
+        <v>36.67991544598685</v>
       </c>
       <c r="O6" t="n">
-        <v>286.0112436389657</v>
+        <v>73.64449903421267</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_37_5</t>
+          <t>model_1_37_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998468788381817</v>
+        <v>0.9371124345584811</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8280489516378646</v>
+        <v>0.7377526519628226</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8206212689915523</v>
+        <v>0.6450153562853285</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9998317326072769</v>
+        <v>0.9487304101412211</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0006373709239185564</v>
+        <v>0.2617711700491366</v>
       </c>
       <c r="G7" t="n">
-        <v>1.149837452159374</v>
+        <v>1.75364922386261</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6416273198407909</v>
+        <v>1.269759487375101</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0004717996166884627</v>
+        <v>0.2786756067466699</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08173904422729487</v>
+        <v>1.273374018426701</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02524620612920992</v>
+        <v>0.5116357787031088</v>
       </c>
       <c r="L7" t="n">
-        <v>1.009799754356372</v>
+        <v>0.914365868334953</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02564380863879764</v>
+        <v>0.5196935307695415</v>
       </c>
       <c r="N7" t="n">
-        <v>144.7163175474332</v>
+        <v>36.68056910722648</v>
       </c>
       <c r="O7" t="n">
-        <v>286.0514900906496</v>
+        <v>73.6451526954523</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_37_6</t>
+          <t>model_1_37_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998495237917502</v>
+        <v>0.9372535832902598</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8280389049148066</v>
+        <v>0.7366843309176497</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8205945724021207</v>
+        <v>0.6425947382438921</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998331194876352</v>
+        <v>0.9509405052993143</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0006263612340781832</v>
+        <v>0.2611836346848838</v>
       </c>
       <c r="G8" t="n">
-        <v>1.149904634642724</v>
+        <v>1.760793091610846</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6417228119932303</v>
+        <v>1.278417897753821</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0004679109867475124</v>
+        <v>0.266662645245593</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08108307263685562</v>
+        <v>1.250350999908703</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02502720987401878</v>
+        <v>0.5110612827096999</v>
       </c>
       <c r="L8" t="n">
-        <v>1.009630477327988</v>
+        <v>0.9145580708633324</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02542136341150319</v>
+        <v>0.5191099870385215</v>
       </c>
       <c r="N8" t="n">
-        <v>144.7511666041022</v>
+        <v>36.685063075777</v>
       </c>
       <c r="O8" t="n">
-        <v>286.0863391473187</v>
+        <v>73.64964666400282</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_37_7</t>
+          <t>model_1_37_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998508403528807</v>
+        <v>0.9372678538204064</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8280159319313474</v>
+        <v>0.7364996072280547</v>
       </c>
       <c r="D9" t="n">
-        <v>0.820675772102903</v>
+        <v>0.6422737639653151</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998348881846877</v>
+        <v>0.9512245894147847</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0006208810132241678</v>
+        <v>0.2611242332221704</v>
       </c>
       <c r="G9" t="n">
-        <v>1.150058255088897</v>
+        <v>1.762028339773743</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6414323653717612</v>
+        <v>1.279566004137132</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0004629517930622781</v>
+        <v>0.2651185074152756</v>
       </c>
       <c r="J9" t="n">
-        <v>0.08083377183675011</v>
+        <v>1.247344567319161</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02491748408696528</v>
+        <v>0.5110031636126829</v>
       </c>
       <c r="L9" t="n">
-        <v>1.009546217415632</v>
+        <v>0.9145775030745961</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02530990955298914</v>
+        <v>0.5190509526238244</v>
       </c>
       <c r="N9" t="n">
-        <v>144.7687421990069</v>
+        <v>36.68551799109893</v>
       </c>
       <c r="O9" t="n">
-        <v>286.1039147422233</v>
+        <v>73.65010157932475</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_37_8</t>
+          <t>model_1_37_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.999858803190619</v>
+        <v>0.9372812767622516</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8277645388738797</v>
+        <v>0.7363484015905603</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8208997401706957</v>
+        <v>0.6419485032586316</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9997992001527706</v>
+        <v>0.9515104364361006</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0005877354885560218</v>
+        <v>0.2610683598683898</v>
       </c>
       <c r="G10" t="n">
-        <v>1.151739321621742</v>
+        <v>1.763039452567906</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6406312445796817</v>
+        <v>1.28072944282524</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0005630163362061835</v>
+        <v>0.2635647873187947</v>
       </c>
       <c r="J10" t="n">
-        <v>0.07568155988167587</v>
+        <v>1.244303976995272</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0242432565583921</v>
+        <v>0.5109484904257863</v>
       </c>
       <c r="L10" t="n">
-        <v>1.009036595800382</v>
+        <v>0.9145957811230661</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0246250636148212</v>
+        <v>0.5189954183888873</v>
       </c>
       <c r="N10" t="n">
-        <v>144.8784671213455</v>
+        <v>36.68594598149737</v>
       </c>
       <c r="O10" t="n">
-        <v>286.2136396645619</v>
+        <v>73.65052956972319</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_37_9</t>
+          <t>model_1_37_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.999860716610507</v>
+        <v>0.9373054649892846</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8277599813390354</v>
+        <v>0.7356068980547463</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8209376732329734</v>
+        <v>0.6412850615920925</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9997951384654009</v>
+        <v>0.9520873411710958</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0005797708271899677</v>
+        <v>0.2609676757276161</v>
       </c>
       <c r="G11" t="n">
-        <v>1.151769797878231</v>
+        <v>1.767997890126204</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6404955602153996</v>
+        <v>1.283102535197892</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0005744047728671003</v>
+        <v>0.2604290244327898</v>
       </c>
       <c r="J11" t="n">
-        <v>0.07486732395944842</v>
+        <v>1.238137534705217</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02407843074600103</v>
+        <v>0.510849954221018</v>
       </c>
       <c r="L11" t="n">
-        <v>1.008914136927551</v>
+        <v>0.9146287182832811</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02445764196065033</v>
+        <v>0.518895330337394</v>
       </c>
       <c r="N11" t="n">
-        <v>144.905755316082</v>
+        <v>36.68671745423225</v>
       </c>
       <c r="O11" t="n">
-        <v>286.2409278592984</v>
+        <v>73.65130104245807</v>
       </c>
     </row>
   </sheetData>
